--- a/Excel:word/leva.xlsx
+++ b/Excel:word/leva.xlsx
@@ -87,11 +87,11 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2">
-        <v>1.14215874830511E-5</v>
+        <v>1.90359791384185E-5</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" si="1"/>
-        <v>1,0.0000114215874830511</v>
+        <v>1,0.0000190359791384185</v>
       </c>
     </row>
     <row r="3">
@@ -99,11 +99,11 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2">
-        <v>9.13351314600214E-5</v>
+        <v>1.52225219100036E-4</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="1"/>
-        <v>2,0.0000913351314600214</v>
+        <v>2,0.000152225219100036</v>
       </c>
     </row>
     <row r="4">
@@ -111,11 +111,11 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.08044856732893E-4</v>
+        <v>5.13408094554822E-4</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>3,0.000308044856732893</v>
+        <v>3,0.000513408094554822</v>
       </c>
     </row>
     <row r="5">
@@ -123,11 +123,11 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
-        <v>7.29480039279327E-4</v>
+        <v>0.00121580006546555</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>4,0.000729480039279327</v>
+        <v>4,0.00121580006546555</v>
       </c>
     </row>
     <row r="6">
@@ -135,11 +135,11 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.00142300881682885</v>
+        <v>0.00237168136138142</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>5,0.00142300881682885</v>
+        <v>5,0.00237168136138142</v>
       </c>
     </row>
     <row r="7">
@@ -147,11 +147,11 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
-        <v>0.00245525353748013</v>
+        <v>0.00409208922913355</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>6,0.00245525353748013</v>
+        <v>6,0.00409208922913355</v>
       </c>
     </row>
     <row r="8">
@@ -159,11 +159,11 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
-        <v>0.00389190815247555</v>
+        <v>0.00648651358745925</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>7,0.00389190815247555</v>
+        <v>7,0.00648651358745925</v>
       </c>
     </row>
     <row r="9">
@@ -171,11 +171,11 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1">
-        <v>0.00579755815364745</v>
+        <v>0.00966259692274575</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>8,0.00579755815364745</v>
+        <v>8,0.00966259692274575</v>
       </c>
     </row>
     <row r="10">
@@ -183,11 +183,11 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1">
-        <v>0.00823550354907393</v>
+        <v>0.0137258392484566</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>9,0.00823550354907393</v>
+        <v>9,0.0137258392484566</v>
       </c>
     </row>
     <row r="11">
@@ -195,11 +195,11 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1">
-        <v>0.011267585362157</v>
+        <v>0.0187793089369284</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>10,0.011267585362157</v>
+        <v>10,0.0187793089369284</v>
       </c>
     </row>
     <row r="12">
@@ -207,11 +207,11 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0149540161296758</v>
+        <v>0.0249233602161263</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>11,0.0149540161296758</v>
+        <v>11,0.0249233602161263</v>
       </c>
     </row>
     <row r="13">
@@ -219,11 +219,11 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0193532148634083</v>
+        <v>0.0322553581056805</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>12,0.0193532148634083</v>
+        <v>12,0.0322553581056805</v>
       </c>
     </row>
     <row r="14">
@@ -231,11 +231,11 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1">
-        <v>0.0245216469276814</v>
+        <v>0.0408694115461356</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>13,0.0245216469276814</v>
+        <v>13,0.0408694115461356</v>
       </c>
     </row>
     <row r="15">
@@ -243,11 +243,11 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0305136692717315</v>
+        <v>0.0508561154528858</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>14,0.0305136692717315</v>
+        <v>14,0.0508561154528858</v>
       </c>
     </row>
     <row r="16">
@@ -255,11 +255,11 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0373813814410852</v>
+        <v>0.0623023024018087</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>15,0.0373813814410852</v>
+        <v>15,0.0623023024018087</v>
       </c>
     </row>
     <row r="17">
@@ -267,11 +267,11 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0451744827763265</v>
+        <v>0.0752908046272108</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>16,0.0451744827763265</v>
+        <v>16,0.0752908046272108</v>
       </c>
     </row>
     <row r="18">
@@ -279,11 +279,11 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1">
-        <v>0.0539401361906585</v>
+        <v>0.0899002269844308</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>17,0.0539401361906585</v>
+        <v>17,0.0899002269844308</v>
       </c>
     </row>
     <row r="19">
@@ -291,11 +291,11 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1">
-        <v>0.0637228388996371</v>
+        <v>0.106204731499395</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>18,0.0637228388996371</v>
+        <v>18,0.106204731499395</v>
       </c>
     </row>
     <row r="20">
@@ -303,11 +303,11 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0745643004573955</v>
+        <v>0.124273834095659</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>19,0.0745643004573955</v>
+        <v>19,0.124273834095659</v>
       </c>
     </row>
     <row r="21">
@@ -315,11 +315,11 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1">
-        <v>0.0865033284336559</v>
+        <v>0.144172214056093</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>20,0.0865033284336559</v>
+        <v>20,0.144172214056093</v>
       </c>
     </row>
     <row r="22">
@@ -327,11 +327,11 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1">
-        <v>0.0995757220448785</v>
+        <v>0.165959536741464</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>21,0.0995757220448785</v>
+        <v>21,0.165959536741464</v>
       </c>
     </row>
     <row r="23">
@@ -339,11 +339,11 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1">
-        <v>0.113814174031097</v>
+        <v>0.189690290051828</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>22,0.113814174031097</v>
+        <v>22,0.189690290051828</v>
       </c>
     </row>
     <row r="24">
@@ -351,11 +351,11 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1">
-        <v>0.129248181047391</v>
+        <v>0.215413635078986</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>23,0.129248181047391</v>
+        <v>23,0.215413635078986</v>
       </c>
     </row>
     <row r="25">
@@ -363,11 +363,11 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1">
-        <v>0.145903962815606</v>
+        <v>0.243173271359343</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>24,0.145903962815606</v>
+        <v>24,0.243173271359343</v>
       </c>
     </row>
     <row r="26">
@@ -375,11 +375,11 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1">
-        <v>0.163804390257914</v>
+        <v>0.273007317096524</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>25,0.163804390257914</v>
+        <v>25,0.273007317096524</v>
       </c>
     </row>
     <row r="27">
@@ -387,11 +387,11 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1">
-        <v>0.182968922809212</v>
+        <v>0.304948204682019</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>26,0.182968922809212</v>
+        <v>26,0.304948204682019</v>
       </c>
     </row>
     <row r="28">
@@ -399,11 +399,11 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1">
-        <v>0.203413555080157</v>
+        <v>0.339022591800262</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>27,0.203413555080157</v>
+        <v>27,0.339022591800262</v>
       </c>
     </row>
     <row r="29">
@@ -411,11 +411,11 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1">
-        <v>0.225150773017056</v>
+        <v>0.37525128836176</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>28,0.225150773017056</v>
+        <v>28,0.37525128836176</v>
       </c>
     </row>
     <row r="30">
@@ -423,11 +423,11 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1">
-        <v>0.24818951967875</v>
+        <v>0.413649199464583</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>29,0.24818951967875</v>
+        <v>29,0.413649199464583</v>
       </c>
     </row>
     <row r="31">
@@ -435,11 +435,11 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1">
-        <v>0.272535170724314</v>
+        <v>0.454225284540523</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>30,0.272535170724314</v>
+        <v>30,0.454225284540523</v>
       </c>
     </row>
     <row r="32">
@@ -447,11 +447,11 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1">
-        <v>0.29818951967875</v>
+        <v>0.496982532797916</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>31,0.29818951967875</v>
+        <v>31,0.496982532797916</v>
       </c>
     </row>
     <row r="33">
@@ -459,11 +459,11 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1">
-        <v>0.325150773017056</v>
+        <v>0.541917955028426</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>32,0.325150773017056</v>
+        <v>32,0.541917955028426</v>
       </c>
     </row>
     <row r="34">
@@ -471,11 +471,11 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="1">
-        <v>0.353413555080157</v>
+        <v>0.589022591800262</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>33,0.353413555080157</v>
+        <v>33,0.589022591800262</v>
       </c>
     </row>
     <row r="35">
@@ -483,11 +483,11 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="1">
-        <v>0.382968922809212</v>
+        <v>0.638281538015353</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>34,0.382968922809212</v>
+        <v>34,0.638281538015353</v>
       </c>
     </row>
     <row r="36">
@@ -495,11 +495,11 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1">
-        <v>0.413804390257914</v>
+        <v>0.68967398376319</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>35,0.413804390257914</v>
+        <v>35,0.68967398376319</v>
       </c>
     </row>
     <row r="37">
@@ -507,11 +507,11 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1">
-        <v>0.445903962815606</v>
+        <v>0.743173271359343</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>36,0.445903962815606</v>
+        <v>36,0.743173271359343</v>
       </c>
     </row>
     <row r="38">
@@ -519,11 +519,11 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1">
-        <v>0.479248181047392</v>
+        <v>0.798746968412319</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>37,0.479248181047392</v>
+        <v>37,0.798746968412319</v>
       </c>
     </row>
     <row r="39">
@@ -531,11 +531,11 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1">
-        <v>0.513814174031097</v>
+        <v>0.856356956718495</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>38,0.513814174031097</v>
+        <v>38,0.856356956718495</v>
       </c>
     </row>
     <row r="40">
@@ -543,11 +543,11 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1">
-        <v>0.549575722044879</v>
+        <v>0.915959536741464</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>39,0.549575722044879</v>
+        <v>39,0.915959536741464</v>
       </c>
     </row>
     <row r="41">
@@ -555,11 +555,11 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="1">
-        <v>0.586503328433656</v>
+        <v>0.977505547389427</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>40,0.586503328433656</v>
+        <v>40,0.977505547389427</v>
       </c>
     </row>
     <row r="42">
@@ -567,11 +567,11 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="1">
-        <v>0.624564300457395</v>
+        <v>1.04094050076233</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>41,0.624564300457395</v>
+        <v>41,1.04094050076233</v>
       </c>
     </row>
     <row r="43">
@@ -579,11 +579,11 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1">
-        <v>0.663722838899637</v>
+        <v>1.1062047314994</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>42,0.663722838899637</v>
+        <v>42,1.1062047314994</v>
       </c>
     </row>
     <row r="44">
@@ -591,11 +591,11 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1">
-        <v>0.703940136190658</v>
+        <v>1.17323356031776</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>43,0.703940136190658</v>
+        <v>43,1.17323356031776</v>
       </c>
     </row>
     <row r="45">
@@ -603,11 +603,11 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1">
-        <v>0.745174482776326</v>
+        <v>1.24195747129388</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>44,0.745174482776326</v>
+        <v>44,1.24195747129388</v>
       </c>
     </row>
     <row r="46">
@@ -615,11 +615,11 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1">
-        <v>0.787381381441085</v>
+        <v>1.31230230240181</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>45,0.787381381441085</v>
+        <v>45,1.31230230240181</v>
       </c>
     </row>
     <row r="47">
@@ -627,11 +627,11 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="1">
-        <v>0.830513669271731</v>
+        <v>1.38418944878622</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>46,0.830513669271731</v>
+        <v>46,1.38418944878622</v>
       </c>
     </row>
     <row r="48">
@@ -639,11 +639,11 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1">
-        <v>0.874521646927681</v>
+        <v>1.4575360782128</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>47,0.874521646927681</v>
+        <v>47,1.4575360782128</v>
       </c>
     </row>
     <row r="49">
@@ -651,11 +651,11 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="1">
-        <v>0.919353214863408</v>
+        <v>1.53225535810568</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>48,0.919353214863408</v>
+        <v>48,1.53225535810568</v>
       </c>
     </row>
     <row r="50">
@@ -663,11 +663,11 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="1">
-        <v>0.964954016129676</v>
+        <v>1.60825669354946</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>49,0.964954016129676</v>
+        <v>49,1.60825669354946</v>
       </c>
     </row>
     <row r="51">
@@ -675,11 +675,11 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="1">
-        <v>1.01126758536216</v>
+        <v>1.68544597560359</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>50,1.01126758536216</v>
+        <v>50,1.68544597560359</v>
       </c>
     </row>
     <row r="52">
@@ -687,11 +687,11 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="1">
-        <v>1.05823550354907</v>
+        <v>1.76372583924846</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>51,1.05823550354907</v>
+        <v>51,1.76372583924846</v>
       </c>
     </row>
     <row r="53">
@@ -699,11 +699,11 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="1">
-        <v>1.10579755815365</v>
+        <v>1.84299593025608</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>52,1.10579755815365</v>
+        <v>52,1.84299593025608</v>
       </c>
     </row>
     <row r="54">
@@ -711,11 +711,11 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="1">
-        <v>1.15389190815248</v>
+        <v>1.92315318025413</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>53,1.15389190815248</v>
+        <v>53,1.92315318025413</v>
       </c>
     </row>
     <row r="55">
@@ -723,11 +723,11 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="1">
-        <v>1.20245525353748</v>
+        <v>2.00409208922913</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>54,1.20245525353748</v>
+        <v>54,2.00409208922913</v>
       </c>
     </row>
     <row r="56">
@@ -735,11 +735,11 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="1">
-        <v>1.25142300881683</v>
+        <v>2.08570501469471</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>55,1.25142300881683</v>
+        <v>55,2.08570501469471</v>
       </c>
     </row>
     <row r="57">
@@ -747,11 +747,11 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="1">
-        <v>1.30072948003928</v>
+        <v>2.16788246673213</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>56,1.30072948003928</v>
+        <v>56,2.16788246673213</v>
       </c>
     </row>
     <row r="58">
@@ -759,11 +759,11 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="1">
-        <v>1.35030804485673</v>
+        <v>2.25051340809456</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>57,1.35030804485673</v>
+        <v>57,2.25051340809456</v>
       </c>
     </row>
     <row r="59">
@@ -771,11 +771,11 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="1">
-        <v>1.40009133513146</v>
+        <v>2.33348555855243</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>58,1.40009133513146</v>
+        <v>58,2.33348555855243</v>
       </c>
     </row>
     <row r="60">
@@ -783,11 +783,11 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="1">
-        <v>1.45001142158748</v>
+        <v>2.41668570264581</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>59,1.45001142158748</v>
+        <v>59,2.41668570264581</v>
       </c>
     </row>
     <row r="61">
@@ -795,11 +795,11 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>60,1.5</v>
+        <v>60,2.5</v>
       </c>
     </row>
     <row r="62">
@@ -807,11 +807,11 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="1">
-        <v>1.54998857841252</v>
+        <v>2.58331429735419</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>61,1.54998857841252</v>
+        <v>61,2.58331429735419</v>
       </c>
     </row>
     <row r="63">
@@ -819,11 +819,11 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="1">
-        <v>1.59990866486854</v>
+        <v>2.66651444144757</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>62,1.59990866486854</v>
+        <v>62,2.66651444144757</v>
       </c>
     </row>
     <row r="64">
@@ -831,11 +831,11 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="1">
-        <v>1.64969195514327</v>
+        <v>2.74948659190545</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>63,1.64969195514327</v>
+        <v>63,2.74948659190545</v>
       </c>
     </row>
     <row r="65">
@@ -843,11 +843,11 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="1">
-        <v>1.69927051996072</v>
+        <v>2.83211753326787</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>64,1.69927051996072</v>
+        <v>64,2.83211753326787</v>
       </c>
     </row>
     <row r="66">
@@ -855,11 +855,11 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="1">
-        <v>1.74857699118317</v>
+        <v>2.91429498530528</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
-        <v>65,1.74857699118317</v>
+        <v>65,2.91429498530528</v>
       </c>
     </row>
     <row r="67">
@@ -867,11 +867,11 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="1">
-        <v>1.79754474646252</v>
+        <v>2.99590791077087</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
-        <v>66,1.79754474646252</v>
+        <v>66,2.99590791077087</v>
       </c>
     </row>
     <row r="68">
@@ -879,11 +879,11 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="1">
-        <v>1.84610809184752</v>
+        <v>3.07684681974587</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
-        <v>67,1.84610809184752</v>
+        <v>67,3.07684681974587</v>
       </c>
     </row>
     <row r="69">
@@ -891,11 +891,11 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="1">
-        <v>1.89420244184635</v>
+        <v>3.15700406974392</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
-        <v>68,1.89420244184635</v>
+        <v>68,3.15700406974392</v>
       </c>
     </row>
     <row r="70">
@@ -903,11 +903,11 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="1">
-        <v>1.94176449645093</v>
+        <v>3.23627416075154</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>69,1.94176449645093</v>
+        <v>69,3.23627416075154</v>
       </c>
     </row>
     <row r="71">
@@ -915,11 +915,11 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="1">
-        <v>1.98873241463784</v>
+        <v>3.31455402439641</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
-        <v>70,1.98873241463784</v>
+        <v>70,3.31455402439641</v>
       </c>
     </row>
     <row r="72">
@@ -927,11 +927,11 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="1">
-        <v>2.03504598387032</v>
+        <v>3.39174330645054</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
-        <v>71,2.03504598387032</v>
+        <v>71,3.39174330645054</v>
       </c>
     </row>
     <row r="73">
@@ -939,11 +939,11 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="1">
-        <v>2.08064678513659</v>
+        <v>3.46774464189432</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
-        <v>72,2.08064678513659</v>
+        <v>72,3.46774464189432</v>
       </c>
     </row>
     <row r="74">
@@ -951,11 +951,11 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="1">
-        <v>2.12547835307232</v>
+        <v>3.5424639217872</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
-        <v>73,2.12547835307232</v>
+        <v>73,3.5424639217872</v>
       </c>
     </row>
     <row r="75">
@@ -963,11 +963,11 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="1">
-        <v>2.16948633072827</v>
+        <v>3.61581055121378</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
-        <v>74,2.16948633072827</v>
+        <v>74,3.61581055121378</v>
       </c>
     </row>
     <row r="76">
@@ -975,11 +975,11 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="1">
-        <v>2.21261861855891</v>
+        <v>3.68769769759819</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
-        <v>75,2.21261861855891</v>
+        <v>75,3.68769769759819</v>
       </c>
     </row>
     <row r="77">
@@ -987,11 +987,11 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="1">
-        <v>2.25482551722367</v>
+        <v>3.75804252870612</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
-        <v>76,2.25482551722367</v>
+        <v>76,3.75804252870612</v>
       </c>
     </row>
     <row r="78">
@@ -999,11 +999,11 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="1">
-        <v>2.29605986380934</v>
+        <v>3.82676643968224</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
-        <v>77,2.29605986380934</v>
+        <v>77,3.82676643968224</v>
       </c>
     </row>
     <row r="79">
@@ -1011,11 +1011,11 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="1">
-        <v>2.33627716110036</v>
+        <v>3.8937952685006</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
-        <v>78,2.33627716110036</v>
+        <v>78,3.8937952685006</v>
       </c>
     </row>
     <row r="80">
@@ -1023,11 +1023,11 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="1">
-        <v>2.3754356995426</v>
+        <v>3.95905949923767</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
-        <v>79,2.3754356995426</v>
+        <v>79,3.95905949923767</v>
       </c>
     </row>
     <row r="81">
@@ -1035,11 +1035,11 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="1">
-        <v>2.41349667156634</v>
+        <v>4.02249445261057</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
-        <v>80,2.41349667156634</v>
+        <v>80,4.02249445261057</v>
       </c>
     </row>
     <row r="82">
@@ -1047,11 +1047,11 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="1">
-        <v>2.45042427795512</v>
+        <v>4.08404046325854</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
-        <v>81,2.45042427795512</v>
+        <v>81,4.08404046325854</v>
       </c>
     </row>
     <row r="83">
@@ -1059,11 +1059,11 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="1">
-        <v>2.4861858259689</v>
+        <v>4.14364304328151</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
-        <v>82,2.4861858259689</v>
+        <v>82,4.14364304328151</v>
       </c>
     </row>
     <row r="84">
@@ -1071,11 +1071,11 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="1">
-        <v>2.52075181895261</v>
+        <v>4.20125303158768</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
-        <v>83,2.52075181895261</v>
+        <v>83,4.20125303158768</v>
       </c>
     </row>
     <row r="85">
@@ -1083,11 +1083,11 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="1">
-        <v>2.55409603718439</v>
+        <v>4.25682672864066</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
-        <v>84,2.55409603718439</v>
+        <v>84,4.25682672864066</v>
       </c>
     </row>
     <row r="86">
@@ -1095,11 +1095,11 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="1">
-        <v>2.58619560974209</v>
+        <v>4.31032601623681</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
-        <v>85,2.58619560974209</v>
+        <v>85,4.31032601623681</v>
       </c>
     </row>
     <row r="87">
@@ -1107,11 +1107,11 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="1">
-        <v>2.61703107719079</v>
+        <v>4.36171846198465</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
-        <v>86,2.61703107719079</v>
+        <v>86,4.36171846198465</v>
       </c>
     </row>
     <row r="88">
@@ -1119,11 +1119,11 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="1">
-        <v>2.64658644491984</v>
+        <v>4.41097740819974</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
-        <v>87,2.64658644491984</v>
+        <v>87,4.41097740819974</v>
       </c>
     </row>
     <row r="89">
@@ -1131,11 +1131,11 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="1">
-        <v>2.67484922698294</v>
+        <v>4.45808204497157</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
-        <v>88,2.67484922698294</v>
+        <v>88,4.45808204497157</v>
       </c>
     </row>
     <row r="90">
@@ -1143,11 +1143,11 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="1">
-        <v>2.70181048032125</v>
+        <v>4.50301746720208</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
-        <v>89,2.70181048032125</v>
+        <v>89,4.50301746720208</v>
       </c>
     </row>
     <row r="91">
@@ -1155,11 +1155,11 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="1">
-        <v>2.72746482927569</v>
+        <v>4.54577471545948</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
-        <v>90,2.72746482927569</v>
+        <v>90,4.54577471545948</v>
       </c>
     </row>
     <row r="92">
@@ -1167,11 +1167,11 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="1">
-        <v>2.75181048032125</v>
+        <v>4.58635080053542</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
-        <v>91,2.75181048032125</v>
+        <v>91,4.58635080053542</v>
       </c>
     </row>
     <row r="93">
@@ -1179,11 +1179,11 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="1">
-        <v>2.77484922698294</v>
+        <v>4.62474871163824</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
-        <v>92,2.77484922698294</v>
+        <v>92,4.62474871163824</v>
       </c>
     </row>
     <row r="94">
@@ -1191,11 +1191,11 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="1">
-        <v>2.79658644491984</v>
+        <v>4.66097740819974</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
-        <v>93,2.79658644491984</v>
+        <v>93,4.66097740819974</v>
       </c>
     </row>
     <row r="95">
@@ -1203,11 +1203,11 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="1">
-        <v>2.81703107719079</v>
+        <v>4.69505179531798</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
-        <v>94,2.81703107719079</v>
+        <v>94,4.69505179531798</v>
       </c>
     </row>
     <row r="96">
@@ -1215,11 +1215,11 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="1">
-        <v>2.83619560974209</v>
+        <v>4.72699268290348</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
-        <v>95,2.83619560974209</v>
+        <v>95,4.72699268290348</v>
       </c>
     </row>
     <row r="97">
@@ -1227,11 +1227,11 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="1">
-        <v>2.85409603718439</v>
+        <v>4.75682672864066</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
-        <v>96,2.85409603718439</v>
+        <v>96,4.75682672864066</v>
       </c>
     </row>
     <row r="98">
@@ -1239,11 +1239,11 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="1">
-        <v>2.87075181895261</v>
+        <v>4.78458636492101</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
-        <v>97,2.87075181895261</v>
+        <v>97,4.78458636492101</v>
       </c>
     </row>
     <row r="99">
@@ -1251,11 +1251,11 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="1">
-        <v>2.8861858259689</v>
+        <v>4.81030970994817</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
-        <v>98,2.8861858259689</v>
+        <v>98,4.81030970994817</v>
       </c>
     </row>
     <row r="100">
@@ -1263,11 +1263,11 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="1">
-        <v>2.90042427795512</v>
+        <v>4.83404046325854</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
-        <v>99,2.90042427795512</v>
+        <v>99,4.83404046325854</v>
       </c>
     </row>
     <row r="101">
@@ -1275,11 +1275,11 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="1">
-        <v>2.91349667156634</v>
+        <v>4.85582778594391</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
-        <v>100,2.91349667156634</v>
+        <v>100,4.85582778594391</v>
       </c>
     </row>
     <row r="102">
@@ -1287,11 +1287,11 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="1">
-        <v>2.9254356995426</v>
+        <v>4.87572616590434</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
-        <v>101,2.9254356995426</v>
+        <v>101,4.87572616590434</v>
       </c>
     </row>
     <row r="103">
@@ -1299,11 +1299,11 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="1">
-        <v>2.93627716110036</v>
+        <v>4.89379526850061</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
-        <v>102,2.93627716110036</v>
+        <v>102,4.89379526850061</v>
       </c>
     </row>
     <row r="104">
@@ -1311,11 +1311,11 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="1">
-        <v>2.94605986380934</v>
+        <v>4.91009977301557</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
-        <v>103,2.94605986380934</v>
+        <v>103,4.91009977301557</v>
       </c>
     </row>
     <row r="105">
@@ -1323,11 +1323,11 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="1">
-        <v>2.95482551722367</v>
+        <v>4.92470919537279</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
-        <v>104,2.95482551722367</v>
+        <v>104,4.92470919537279</v>
       </c>
     </row>
     <row r="106">
@@ -1335,11 +1335,11 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="1">
-        <v>2.96261861855891</v>
+        <v>4.93769769759819</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
-        <v>105,2.96261861855891</v>
+        <v>105,4.93769769759819</v>
       </c>
     </row>
     <row r="107">
@@ -1347,11 +1347,11 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="1">
-        <v>2.96948633072827</v>
+        <v>4.94914388454711</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
-        <v>106,2.96948633072827</v>
+        <v>106,4.94914388454711</v>
       </c>
     </row>
     <row r="108">
@@ -1359,11 +1359,11 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="1">
-        <v>2.97547835307232</v>
+        <v>4.95913058845387</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
-        <v>107,2.97547835307232</v>
+        <v>107,4.95913058845387</v>
       </c>
     </row>
     <row r="109">
@@ -1371,11 +1371,11 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="1">
-        <v>2.98064678513659</v>
+        <v>4.96774464189432</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
-        <v>108,2.98064678513659</v>
+        <v>108,4.96774464189432</v>
       </c>
     </row>
     <row r="110">
@@ -1383,11 +1383,11 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="1">
-        <v>2.98504598387032</v>
+        <v>4.97507663978387</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
-        <v>109,2.98504598387032</v>
+        <v>109,4.97507663978387</v>
       </c>
     </row>
     <row r="111">
@@ -1395,11 +1395,11 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="1">
-        <v>2.98873241463784</v>
+        <v>4.98122069106307</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
-        <v>110,2.98873241463784</v>
+        <v>110,4.98122069106307</v>
       </c>
     </row>
     <row r="112">
@@ -1407,11 +1407,11 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="1">
-        <v>2.99176449645093</v>
+        <v>4.98627416075154</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
-        <v>111,2.99176449645093</v>
+        <v>111,4.98627416075154</v>
       </c>
     </row>
     <row r="113">
@@ -1419,11 +1419,11 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="1">
-        <v>2.99420244184635</v>
+        <v>4.99033740307725</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
-        <v>112,2.99420244184635</v>
+        <v>112,4.99033740307725</v>
       </c>
     </row>
     <row r="114">
@@ -1431,11 +1431,11 @@
         <v>113.0</v>
       </c>
       <c r="B114" s="1">
-        <v>2.99610809184752</v>
+        <v>4.99351348641254</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
-        <v>113,2.99610809184752</v>
+        <v>113,4.99351348641254</v>
       </c>
     </row>
     <row r="115">
@@ -1443,11 +1443,11 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="1">
-        <v>2.99754474646252</v>
+        <v>4.99590791077087</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
-        <v>114,2.99754474646252</v>
+        <v>114,4.99590791077087</v>
       </c>
     </row>
     <row r="116">
@@ -1455,11 +1455,11 @@
         <v>115.0</v>
       </c>
       <c r="B116" s="1">
-        <v>2.99857699118317</v>
+        <v>4.99762831863862</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
-        <v>115,2.99857699118317</v>
+        <v>115,4.99762831863862</v>
       </c>
     </row>
     <row r="117">
@@ -1467,11 +1467,11 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="1">
-        <v>2.99927051996072</v>
+        <v>4.99878419993453</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
-        <v>116,2.99927051996072</v>
+        <v>116,4.99878419993453</v>
       </c>
     </row>
     <row r="118">
@@ -1479,11 +1479,11 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="1">
-        <v>2.99969195514327</v>
+        <v>4.99948659190545</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
-        <v>117,2.99969195514327</v>
+        <v>117,4.99948659190545</v>
       </c>
     </row>
     <row r="119">
@@ -1491,11 +1491,11 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="1">
-        <v>2.99990866486854</v>
+        <v>4.9998477747809</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
-        <v>118,2.99990866486854</v>
+        <v>118,4.9998477747809</v>
       </c>
     </row>
     <row r="120">
@@ -1503,11 +1503,11 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="1">
-        <v>2.99998857841252</v>
+        <v>4.99998096402086</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
-        <v>119,2.99998857841252</v>
+        <v>119,4.99998096402086</v>
       </c>
     </row>
     <row r="121">
@@ -1515,11 +1515,11 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
-        <v>120,3</v>
+        <v>120,5</v>
       </c>
     </row>
     <row r="122">
@@ -1527,11 +1527,11 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
-        <v>121,3</v>
+        <v>121,5</v>
       </c>
     </row>
     <row r="123">
@@ -1539,11 +1539,11 @@
         <v>122.0</v>
       </c>
       <c r="B123" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
-        <v>122,3</v>
+        <v>122,5</v>
       </c>
     </row>
     <row r="124">
@@ -1551,11 +1551,11 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
-        <v>123,3</v>
+        <v>123,5</v>
       </c>
     </row>
     <row r="125">
@@ -1563,11 +1563,11 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
-        <v>124,3</v>
+        <v>124,5</v>
       </c>
     </row>
     <row r="126">
@@ -1575,11 +1575,11 @@
         <v>125.0</v>
       </c>
       <c r="B126" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
-        <v>125,3</v>
+        <v>125,5</v>
       </c>
     </row>
     <row r="127">
@@ -1587,11 +1587,11 @@
         <v>126.0</v>
       </c>
       <c r="B127" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
-        <v>126,3</v>
+        <v>126,5</v>
       </c>
     </row>
     <row r="128">
@@ -1599,11 +1599,11 @@
         <v>127.0</v>
       </c>
       <c r="B128" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
-        <v>127,3</v>
+        <v>127,5</v>
       </c>
     </row>
     <row r="129">
@@ -1611,11 +1611,11 @@
         <v>128.0</v>
       </c>
       <c r="B129" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
-        <v>128,3</v>
+        <v>128,5</v>
       </c>
     </row>
     <row r="130">
@@ -1623,11 +1623,11 @@
         <v>129.0</v>
       </c>
       <c r="B130" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
-        <v>129,3</v>
+        <v>129,5</v>
       </c>
     </row>
     <row r="131">
@@ -1635,11 +1635,11 @@
         <v>130.0</v>
       </c>
       <c r="B131" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="1"/>
-        <v>130,3</v>
+        <v>130,5</v>
       </c>
     </row>
     <row r="132">
@@ -1647,11 +1647,11 @@
         <v>131.0</v>
       </c>
       <c r="B132" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="1"/>
-        <v>131,3</v>
+        <v>131,5</v>
       </c>
     </row>
     <row r="133">
@@ -1659,11 +1659,11 @@
         <v>132.0</v>
       </c>
       <c r="B133" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="1"/>
-        <v>132,3</v>
+        <v>132,5</v>
       </c>
     </row>
     <row r="134">
@@ -1671,11 +1671,11 @@
         <v>133.0</v>
       </c>
       <c r="B134" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="1"/>
-        <v>133,3</v>
+        <v>133,5</v>
       </c>
     </row>
     <row r="135">
@@ -1683,11 +1683,11 @@
         <v>134.0</v>
       </c>
       <c r="B135" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="1"/>
-        <v>134,3</v>
+        <v>134,5</v>
       </c>
     </row>
     <row r="136">
@@ -1695,11 +1695,11 @@
         <v>135.0</v>
       </c>
       <c r="B136" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="1"/>
-        <v>135,3</v>
+        <v>135,5</v>
       </c>
     </row>
     <row r="137">
@@ -1707,11 +1707,11 @@
         <v>136.0</v>
       </c>
       <c r="B137" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="1"/>
-        <v>136,3</v>
+        <v>136,5</v>
       </c>
     </row>
     <row r="138">
@@ -1719,11 +1719,11 @@
         <v>137.0</v>
       </c>
       <c r="B138" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="1"/>
-        <v>137,3</v>
+        <v>137,5</v>
       </c>
     </row>
     <row r="139">
@@ -1731,11 +1731,11 @@
         <v>138.0</v>
       </c>
       <c r="B139" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="1"/>
-        <v>138,3</v>
+        <v>138,5</v>
       </c>
     </row>
     <row r="140">
@@ -1743,11 +1743,11 @@
         <v>139.0</v>
       </c>
       <c r="B140" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="1"/>
-        <v>139,3</v>
+        <v>139,5</v>
       </c>
     </row>
     <row r="141">
@@ -1755,11 +1755,11 @@
         <v>140.0</v>
       </c>
       <c r="B141" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="1"/>
-        <v>140,3</v>
+        <v>140,5</v>
       </c>
     </row>
     <row r="142">
@@ -1767,11 +1767,11 @@
         <v>141.0</v>
       </c>
       <c r="B142" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="1"/>
-        <v>141,3</v>
+        <v>141,5</v>
       </c>
     </row>
     <row r="143">
@@ -1779,11 +1779,11 @@
         <v>142.0</v>
       </c>
       <c r="B143" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="1"/>
-        <v>142,3</v>
+        <v>142,5</v>
       </c>
     </row>
     <row r="144">
@@ -1791,11 +1791,11 @@
         <v>143.0</v>
       </c>
       <c r="B144" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="1"/>
-        <v>143,3</v>
+        <v>143,5</v>
       </c>
     </row>
     <row r="145">
@@ -1803,11 +1803,11 @@
         <v>144.0</v>
       </c>
       <c r="B145" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="1"/>
-        <v>144,3</v>
+        <v>144,5</v>
       </c>
     </row>
     <row r="146">
@@ -1815,11 +1815,11 @@
         <v>145.0</v>
       </c>
       <c r="B146" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="1"/>
-        <v>145,3</v>
+        <v>145,5</v>
       </c>
     </row>
     <row r="147">
@@ -1827,11 +1827,11 @@
         <v>146.0</v>
       </c>
       <c r="B147" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="1"/>
-        <v>146,3</v>
+        <v>146,5</v>
       </c>
     </row>
     <row r="148">
@@ -1839,11 +1839,11 @@
         <v>147.0</v>
       </c>
       <c r="B148" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="1"/>
-        <v>147,3</v>
+        <v>147,5</v>
       </c>
     </row>
     <row r="149">
@@ -1851,11 +1851,11 @@
         <v>148.0</v>
       </c>
       <c r="B149" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="1"/>
-        <v>148,3</v>
+        <v>148,5</v>
       </c>
     </row>
     <row r="150">
@@ -1863,11 +1863,11 @@
         <v>149.0</v>
       </c>
       <c r="B150" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="1"/>
-        <v>149,3</v>
+        <v>149,5</v>
       </c>
     </row>
     <row r="151">
@@ -1875,11 +1875,11 @@
         <v>150.0</v>
       </c>
       <c r="B151" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="1"/>
-        <v>150,3</v>
+        <v>150,5</v>
       </c>
     </row>
     <row r="152">
@@ -1887,11 +1887,11 @@
         <v>151.0</v>
       </c>
       <c r="B152" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="1"/>
-        <v>151,3</v>
+        <v>151,5</v>
       </c>
     </row>
     <row r="153">
@@ -1899,11 +1899,11 @@
         <v>152.0</v>
       </c>
       <c r="B153" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="1"/>
-        <v>152,3</v>
+        <v>152,5</v>
       </c>
     </row>
     <row r="154">
@@ -1911,11 +1911,11 @@
         <v>153.0</v>
       </c>
       <c r="B154" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="1"/>
-        <v>153,3</v>
+        <v>153,5</v>
       </c>
     </row>
     <row r="155">
@@ -1923,11 +1923,11 @@
         <v>154.0</v>
       </c>
       <c r="B155" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="1"/>
-        <v>154,3</v>
+        <v>154,5</v>
       </c>
     </row>
     <row r="156">
@@ -1935,11 +1935,11 @@
         <v>155.0</v>
       </c>
       <c r="B156" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="1"/>
-        <v>155,3</v>
+        <v>155,5</v>
       </c>
     </row>
     <row r="157">
@@ -1947,11 +1947,11 @@
         <v>156.0</v>
       </c>
       <c r="B157" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="1"/>
-        <v>156,3</v>
+        <v>156,5</v>
       </c>
     </row>
     <row r="158">
@@ -1959,11 +1959,11 @@
         <v>157.0</v>
       </c>
       <c r="B158" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="1"/>
-        <v>157,3</v>
+        <v>157,5</v>
       </c>
     </row>
     <row r="159">
@@ -1971,11 +1971,11 @@
         <v>158.0</v>
       </c>
       <c r="B159" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="1"/>
-        <v>158,3</v>
+        <v>158,5</v>
       </c>
     </row>
     <row r="160">
@@ -1983,11 +1983,11 @@
         <v>159.0</v>
       </c>
       <c r="B160" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="1"/>
-        <v>159,3</v>
+        <v>159,5</v>
       </c>
     </row>
     <row r="161">
@@ -1995,11 +1995,11 @@
         <v>160.0</v>
       </c>
       <c r="B161" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="1"/>
-        <v>160,3</v>
+        <v>160,5</v>
       </c>
     </row>
     <row r="162">
@@ -2007,11 +2007,11 @@
         <v>161.0</v>
       </c>
       <c r="B162" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="1"/>
-        <v>161,3</v>
+        <v>161,5</v>
       </c>
     </row>
     <row r="163">
@@ -2019,11 +2019,11 @@
         <v>162.0</v>
       </c>
       <c r="B163" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="1"/>
-        <v>162,3</v>
+        <v>162,5</v>
       </c>
     </row>
     <row r="164">
@@ -2031,11 +2031,11 @@
         <v>163.0</v>
       </c>
       <c r="B164" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="1"/>
-        <v>163,3</v>
+        <v>163,5</v>
       </c>
     </row>
     <row r="165">
@@ -2043,11 +2043,11 @@
         <v>164.0</v>
       </c>
       <c r="B165" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="1"/>
-        <v>164,3</v>
+        <v>164,5</v>
       </c>
     </row>
     <row r="166">
@@ -2055,11 +2055,11 @@
         <v>165.0</v>
       </c>
       <c r="B166" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="1"/>
-        <v>165,3</v>
+        <v>165,5</v>
       </c>
     </row>
     <row r="167">
@@ -2067,11 +2067,11 @@
         <v>166.0</v>
       </c>
       <c r="B167" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="1"/>
-        <v>166,3</v>
+        <v>166,5</v>
       </c>
     </row>
     <row r="168">
@@ -2079,11 +2079,11 @@
         <v>167.0</v>
       </c>
       <c r="B168" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="1"/>
-        <v>167,3</v>
+        <v>167,5</v>
       </c>
     </row>
     <row r="169">
@@ -2091,11 +2091,11 @@
         <v>168.0</v>
       </c>
       <c r="B169" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="1"/>
-        <v>168,3</v>
+        <v>168,5</v>
       </c>
     </row>
     <row r="170">
@@ -2103,11 +2103,11 @@
         <v>169.0</v>
       </c>
       <c r="B170" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="1"/>
-        <v>169,3</v>
+        <v>169,5</v>
       </c>
     </row>
     <row r="171">
@@ -2115,11 +2115,11 @@
         <v>170.0</v>
       </c>
       <c r="B171" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="1"/>
-        <v>170,3</v>
+        <v>170,5</v>
       </c>
     </row>
     <row r="172">
@@ -2127,11 +2127,11 @@
         <v>171.0</v>
       </c>
       <c r="B172" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="1"/>
-        <v>171,3</v>
+        <v>171,5</v>
       </c>
     </row>
     <row r="173">
@@ -2139,11 +2139,11 @@
         <v>172.0</v>
       </c>
       <c r="B173" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="1"/>
-        <v>172,3</v>
+        <v>172,5</v>
       </c>
     </row>
     <row r="174">
@@ -2151,11 +2151,11 @@
         <v>173.0</v>
       </c>
       <c r="B174" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="1"/>
-        <v>173,3</v>
+        <v>173,5</v>
       </c>
     </row>
     <row r="175">
@@ -2163,11 +2163,11 @@
         <v>174.0</v>
       </c>
       <c r="B175" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="1"/>
-        <v>174,3</v>
+        <v>174,5</v>
       </c>
     </row>
     <row r="176">
@@ -2175,11 +2175,11 @@
         <v>175.0</v>
       </c>
       <c r="B176" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="1"/>
-        <v>175,3</v>
+        <v>175,5</v>
       </c>
     </row>
     <row r="177">
@@ -2187,11 +2187,11 @@
         <v>176.0</v>
       </c>
       <c r="B177" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="1"/>
-        <v>176,3</v>
+        <v>176,5</v>
       </c>
     </row>
     <row r="178">
@@ -2199,11 +2199,11 @@
         <v>177.0</v>
       </c>
       <c r="B178" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="1"/>
-        <v>177,3</v>
+        <v>177,5</v>
       </c>
     </row>
     <row r="179">
@@ -2211,11 +2211,11 @@
         <v>178.0</v>
       </c>
       <c r="B179" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="1"/>
-        <v>178,3</v>
+        <v>178,5</v>
       </c>
     </row>
     <row r="180">
@@ -2223,11 +2223,11 @@
         <v>179.0</v>
       </c>
       <c r="B180" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="1"/>
-        <v>179,3</v>
+        <v>179,5</v>
       </c>
     </row>
     <row r="181">
@@ -2235,11 +2235,11 @@
         <v>180.0</v>
       </c>
       <c r="B181" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="1"/>
-        <v>180,3</v>
+        <v>180,5</v>
       </c>
     </row>
     <row r="182">
@@ -2247,11 +2247,11 @@
         <v>181.0</v>
       </c>
       <c r="B182" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="1"/>
-        <v>181,3</v>
+        <v>181,5</v>
       </c>
     </row>
     <row r="183">
@@ -2259,11 +2259,11 @@
         <v>182.0</v>
       </c>
       <c r="B183" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="1"/>
-        <v>182,3</v>
+        <v>182,5</v>
       </c>
     </row>
     <row r="184">
@@ -2271,11 +2271,11 @@
         <v>183.0</v>
       </c>
       <c r="B184" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="1"/>
-        <v>183,3</v>
+        <v>183,5</v>
       </c>
     </row>
     <row r="185">
@@ -2283,11 +2283,11 @@
         <v>184.0</v>
       </c>
       <c r="B185" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="1"/>
-        <v>184,3</v>
+        <v>184,5</v>
       </c>
     </row>
     <row r="186">
@@ -2295,11 +2295,11 @@
         <v>185.0</v>
       </c>
       <c r="B186" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="1"/>
-        <v>185,3</v>
+        <v>185,5</v>
       </c>
     </row>
     <row r="187">
@@ -2307,11 +2307,11 @@
         <v>186.0</v>
       </c>
       <c r="B187" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="1"/>
-        <v>186,3</v>
+        <v>186,5</v>
       </c>
     </row>
     <row r="188">
@@ -2319,11 +2319,11 @@
         <v>187.0</v>
       </c>
       <c r="B188" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="1"/>
-        <v>187,3</v>
+        <v>187,5</v>
       </c>
     </row>
     <row r="189">
@@ -2331,11 +2331,11 @@
         <v>188.0</v>
       </c>
       <c r="B189" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="1"/>
-        <v>188,3</v>
+        <v>188,5</v>
       </c>
     </row>
     <row r="190">
@@ -2343,11 +2343,11 @@
         <v>189.0</v>
       </c>
       <c r="B190" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="1"/>
-        <v>189,3</v>
+        <v>189,5</v>
       </c>
     </row>
     <row r="191">
@@ -2355,11 +2355,11 @@
         <v>190.0</v>
       </c>
       <c r="B191" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="1"/>
-        <v>190,3</v>
+        <v>190,5</v>
       </c>
     </row>
     <row r="192">
@@ -2367,11 +2367,11 @@
         <v>191.0</v>
       </c>
       <c r="B192" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="1"/>
-        <v>191,3</v>
+        <v>191,5</v>
       </c>
     </row>
     <row r="193">
@@ -2379,11 +2379,11 @@
         <v>192.0</v>
       </c>
       <c r="B193" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="1"/>
-        <v>192,3</v>
+        <v>192,5</v>
       </c>
     </row>
     <row r="194">
@@ -2391,11 +2391,11 @@
         <v>193.0</v>
       </c>
       <c r="B194" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" si="1"/>
-        <v>193,3</v>
+        <v>193,5</v>
       </c>
     </row>
     <row r="195">
@@ -2403,11 +2403,11 @@
         <v>194.0</v>
       </c>
       <c r="B195" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" si="1"/>
-        <v>194,3</v>
+        <v>194,5</v>
       </c>
     </row>
     <row r="196">
@@ -2415,11 +2415,11 @@
         <v>195.0</v>
       </c>
       <c r="B196" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="1"/>
-        <v>195,3</v>
+        <v>195,5</v>
       </c>
     </row>
     <row r="197">
@@ -2427,11 +2427,11 @@
         <v>196.0</v>
       </c>
       <c r="B197" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="1"/>
-        <v>196,3</v>
+        <v>196,5</v>
       </c>
     </row>
     <row r="198">
@@ -2439,11 +2439,11 @@
         <v>197.0</v>
       </c>
       <c r="B198" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="1"/>
-        <v>197,3</v>
+        <v>197,5</v>
       </c>
     </row>
     <row r="199">
@@ -2451,11 +2451,11 @@
         <v>198.0</v>
       </c>
       <c r="B199" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="1"/>
-        <v>198,3</v>
+        <v>198,5</v>
       </c>
     </row>
     <row r="200">
@@ -2463,11 +2463,11 @@
         <v>199.0</v>
       </c>
       <c r="B200" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="1"/>
-        <v>199,3</v>
+        <v>199,5</v>
       </c>
     </row>
     <row r="201">
@@ -2475,11 +2475,11 @@
         <v>200.0</v>
       </c>
       <c r="B201" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="1"/>
-        <v>200,3</v>
+        <v>200,5</v>
       </c>
     </row>
     <row r="202">
@@ -2487,11 +2487,11 @@
         <v>201.0</v>
       </c>
       <c r="B202" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="1"/>
-        <v>201,3</v>
+        <v>201,5</v>
       </c>
     </row>
     <row r="203">
@@ -2499,11 +2499,11 @@
         <v>202.0</v>
       </c>
       <c r="B203" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="1"/>
-        <v>202,3</v>
+        <v>202,5</v>
       </c>
     </row>
     <row r="204">
@@ -2511,11 +2511,11 @@
         <v>203.0</v>
       </c>
       <c r="B204" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="1"/>
-        <v>203,3</v>
+        <v>203,5</v>
       </c>
     </row>
     <row r="205">
@@ -2523,11 +2523,11 @@
         <v>204.0</v>
       </c>
       <c r="B205" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="1"/>
-        <v>204,3</v>
+        <v>204,5</v>
       </c>
     </row>
     <row r="206">
@@ -2535,11 +2535,11 @@
         <v>205.0</v>
       </c>
       <c r="B206" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="1"/>
-        <v>205,3</v>
+        <v>205,5</v>
       </c>
     </row>
     <row r="207">
@@ -2547,11 +2547,11 @@
         <v>206.0</v>
       </c>
       <c r="B207" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="1"/>
-        <v>206,3</v>
+        <v>206,5</v>
       </c>
     </row>
     <row r="208">
@@ -2559,11 +2559,11 @@
         <v>207.0</v>
       </c>
       <c r="B208" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="1"/>
-        <v>207,3</v>
+        <v>207,5</v>
       </c>
     </row>
     <row r="209">
@@ -2571,11 +2571,11 @@
         <v>208.0</v>
       </c>
       <c r="B209" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="1"/>
-        <v>208,3</v>
+        <v>208,5</v>
       </c>
     </row>
     <row r="210">
@@ -2583,11 +2583,11 @@
         <v>209.0</v>
       </c>
       <c r="B210" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="1"/>
-        <v>209,3</v>
+        <v>209,5</v>
       </c>
     </row>
     <row r="211">
@@ -2595,11 +2595,11 @@
         <v>210.0</v>
       </c>
       <c r="B211" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="1"/>
-        <v>210,3</v>
+        <v>210,5</v>
       </c>
     </row>
     <row r="212">
@@ -2607,11 +2607,11 @@
         <v>211.0</v>
       </c>
       <c r="B212" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="1"/>
-        <v>211,3</v>
+        <v>211,5</v>
       </c>
     </row>
     <row r="213">
@@ -2619,11 +2619,11 @@
         <v>212.0</v>
       </c>
       <c r="B213" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="1"/>
-        <v>212,3</v>
+        <v>212,5</v>
       </c>
     </row>
     <row r="214">
@@ -2631,11 +2631,11 @@
         <v>213.0</v>
       </c>
       <c r="B214" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="1"/>
-        <v>213,3</v>
+        <v>213,5</v>
       </c>
     </row>
     <row r="215">
@@ -2643,11 +2643,11 @@
         <v>214.0</v>
       </c>
       <c r="B215" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="1"/>
-        <v>214,3</v>
+        <v>214,5</v>
       </c>
     </row>
     <row r="216">
@@ -2655,11 +2655,11 @@
         <v>215.0</v>
       </c>
       <c r="B216" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="1"/>
-        <v>215,3</v>
+        <v>215,5</v>
       </c>
     </row>
     <row r="217">
@@ -2667,11 +2667,11 @@
         <v>216.0</v>
       </c>
       <c r="B217" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="1"/>
-        <v>216,3</v>
+        <v>216,5</v>
       </c>
     </row>
     <row r="218">
@@ -2679,11 +2679,11 @@
         <v>217.0</v>
       </c>
       <c r="B218" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="1"/>
-        <v>217,3</v>
+        <v>217,5</v>
       </c>
     </row>
     <row r="219">
@@ -2691,11 +2691,11 @@
         <v>218.0</v>
       </c>
       <c r="B219" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="1"/>
-        <v>218,3</v>
+        <v>218,5</v>
       </c>
     </row>
     <row r="220">
@@ -2703,11 +2703,11 @@
         <v>219.0</v>
       </c>
       <c r="B220" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="1"/>
-        <v>219,3</v>
+        <v>219,5</v>
       </c>
     </row>
     <row r="221">
@@ -2715,11 +2715,11 @@
         <v>220.0</v>
       </c>
       <c r="B221" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="1"/>
-        <v>220,3</v>
+        <v>220,5</v>
       </c>
     </row>
     <row r="222">
@@ -2727,11 +2727,11 @@
         <v>221.0</v>
       </c>
       <c r="B222" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="1"/>
-        <v>221,3</v>
+        <v>221,5</v>
       </c>
     </row>
     <row r="223">
@@ -2739,11 +2739,11 @@
         <v>222.0</v>
       </c>
       <c r="B223" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="1"/>
-        <v>222,3</v>
+        <v>222,5</v>
       </c>
     </row>
     <row r="224">
@@ -2751,11 +2751,11 @@
         <v>223.0</v>
       </c>
       <c r="B224" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="1"/>
-        <v>223,3</v>
+        <v>223,5</v>
       </c>
     </row>
     <row r="225">
@@ -2763,11 +2763,11 @@
         <v>224.0</v>
       </c>
       <c r="B225" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="1"/>
-        <v>224,3</v>
+        <v>224,5</v>
       </c>
     </row>
     <row r="226">
@@ -2775,11 +2775,11 @@
         <v>225.0</v>
       </c>
       <c r="B226" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="1"/>
-        <v>225,3</v>
+        <v>225,5</v>
       </c>
     </row>
     <row r="227">
@@ -2787,11 +2787,11 @@
         <v>226.0</v>
       </c>
       <c r="B227" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="1"/>
-        <v>226,3</v>
+        <v>226,5</v>
       </c>
     </row>
     <row r="228">
@@ -2799,11 +2799,11 @@
         <v>227.0</v>
       </c>
       <c r="B228" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="1"/>
-        <v>227,3</v>
+        <v>227,5</v>
       </c>
     </row>
     <row r="229">
@@ -2811,11 +2811,11 @@
         <v>228.0</v>
       </c>
       <c r="B229" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="1"/>
-        <v>228,3</v>
+        <v>228,5</v>
       </c>
     </row>
     <row r="230">
@@ -2823,11 +2823,11 @@
         <v>229.0</v>
       </c>
       <c r="B230" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="1"/>
-        <v>229,3</v>
+        <v>229,5</v>
       </c>
     </row>
     <row r="231">
@@ -2835,11 +2835,11 @@
         <v>230.0</v>
       </c>
       <c r="B231" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="1"/>
-        <v>230,3</v>
+        <v>230,5</v>
       </c>
     </row>
     <row r="232">
@@ -2847,11 +2847,11 @@
         <v>231.0</v>
       </c>
       <c r="B232" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="1"/>
-        <v>231,3</v>
+        <v>231,5</v>
       </c>
     </row>
     <row r="233">
@@ -2859,11 +2859,11 @@
         <v>232.0</v>
       </c>
       <c r="B233" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="1"/>
-        <v>232,3</v>
+        <v>232,5</v>
       </c>
     </row>
     <row r="234">
@@ -2871,11 +2871,11 @@
         <v>233.0</v>
       </c>
       <c r="B234" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="1"/>
-        <v>233,3</v>
+        <v>233,5</v>
       </c>
     </row>
     <row r="235">
@@ -2883,11 +2883,11 @@
         <v>234.0</v>
       </c>
       <c r="B235" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="1"/>
-        <v>234,3</v>
+        <v>234,5</v>
       </c>
     </row>
     <row r="236">
@@ -2895,11 +2895,11 @@
         <v>235.0</v>
       </c>
       <c r="B236" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="1"/>
-        <v>235,3</v>
+        <v>235,5</v>
       </c>
     </row>
     <row r="237">
@@ -2907,11 +2907,11 @@
         <v>236.0</v>
       </c>
       <c r="B237" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="1"/>
-        <v>236,3</v>
+        <v>236,5</v>
       </c>
     </row>
     <row r="238">
@@ -2919,11 +2919,11 @@
         <v>237.0</v>
       </c>
       <c r="B238" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="1"/>
-        <v>237,3</v>
+        <v>237,5</v>
       </c>
     </row>
     <row r="239">
@@ -2931,11 +2931,11 @@
         <v>238.0</v>
       </c>
       <c r="B239" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="1"/>
-        <v>238,3</v>
+        <v>238,5</v>
       </c>
     </row>
     <row r="240">
@@ -2943,11 +2943,11 @@
         <v>239.0</v>
       </c>
       <c r="B240" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="1"/>
-        <v>239,3</v>
+        <v>239,5</v>
       </c>
     </row>
     <row r="241">
@@ -2955,11 +2955,11 @@
         <v>240.0</v>
       </c>
       <c r="B241" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="1"/>
-        <v>240,3</v>
+        <v>240,5</v>
       </c>
     </row>
     <row r="242">
@@ -2967,11 +2967,11 @@
         <v>241.0</v>
       </c>
       <c r="B242" s="1">
-        <v>2.99998857841252</v>
+        <v>4.99998096402086</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="1"/>
-        <v>241,2.99998857841252</v>
+        <v>241,4.99998096402086</v>
       </c>
     </row>
     <row r="243">
@@ -2979,11 +2979,11 @@
         <v>242.0</v>
       </c>
       <c r="B243" s="1">
-        <v>2.99990866486854</v>
+        <v>4.9998477747809</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="1"/>
-        <v>242,2.99990866486854</v>
+        <v>242,4.9998477747809</v>
       </c>
     </row>
     <row r="244">
@@ -2991,11 +2991,11 @@
         <v>243.0</v>
       </c>
       <c r="B244" s="1">
-        <v>2.99969195514327</v>
+        <v>4.99948659190545</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="1"/>
-        <v>243,2.99969195514327</v>
+        <v>243,4.99948659190545</v>
       </c>
     </row>
     <row r="245">
@@ -3003,11 +3003,11 @@
         <v>244.0</v>
       </c>
       <c r="B245" s="1">
-        <v>2.99927051996072</v>
+        <v>4.99878419993453</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="1"/>
-        <v>244,2.99927051996072</v>
+        <v>244,4.99878419993453</v>
       </c>
     </row>
     <row r="246">
@@ -3015,11 +3015,11 @@
         <v>245.0</v>
       </c>
       <c r="B246" s="1">
-        <v>2.99857699118317</v>
+        <v>4.99762831863862</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="1"/>
-        <v>245,2.99857699118317</v>
+        <v>245,4.99762831863862</v>
       </c>
     </row>
     <row r="247">
@@ -3027,11 +3027,11 @@
         <v>246.0</v>
       </c>
       <c r="B247" s="1">
-        <v>2.99754474646252</v>
+        <v>4.99590791077087</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="1"/>
-        <v>246,2.99754474646252</v>
+        <v>246,4.99590791077087</v>
       </c>
     </row>
     <row r="248">
@@ -3039,11 +3039,11 @@
         <v>247.0</v>
       </c>
       <c r="B248" s="1">
-        <v>2.99610809184753</v>
+        <v>4.99351348641254</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="1"/>
-        <v>247,2.99610809184753</v>
+        <v>247,4.99351348641254</v>
       </c>
     </row>
     <row r="249">
@@ -3051,11 +3051,11 @@
         <v>248.0</v>
       </c>
       <c r="B249" s="1">
-        <v>2.99420244184635</v>
+        <v>4.99033740307725</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="1"/>
-        <v>248,2.99420244184635</v>
+        <v>248,4.99033740307725</v>
       </c>
     </row>
     <row r="250">
@@ -3063,11 +3063,11 @@
         <v>249.0</v>
       </c>
       <c r="B250" s="1">
-        <v>2.99176449645092</v>
+        <v>4.98627416075154</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="1"/>
-        <v>249,2.99176449645092</v>
+        <v>249,4.98627416075154</v>
       </c>
     </row>
     <row r="251">
@@ -3075,11 +3075,11 @@
         <v>250.0</v>
       </c>
       <c r="B251" s="1">
-        <v>2.98873241463784</v>
+        <v>4.98122069106307</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="1"/>
-        <v>250,2.98873241463784</v>
+        <v>250,4.98122069106307</v>
       </c>
     </row>
     <row r="252">
@@ -3087,11 +3087,11 @@
         <v>251.0</v>
       </c>
       <c r="B252" s="1">
-        <v>2.98504598387032</v>
+        <v>4.97507663978387</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="1"/>
-        <v>251,2.98504598387032</v>
+        <v>251,4.97507663978387</v>
       </c>
     </row>
     <row r="253">
@@ -3099,11 +3099,11 @@
         <v>252.0</v>
       </c>
       <c r="B253" s="1">
-        <v>2.98064678513659</v>
+        <v>4.96774464189432</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="1"/>
-        <v>252,2.98064678513659</v>
+        <v>252,4.96774464189432</v>
       </c>
     </row>
     <row r="254">
@@ -3111,11 +3111,11 @@
         <v>253.0</v>
       </c>
       <c r="B254" s="1">
-        <v>2.97547835307232</v>
+        <v>4.95913058845386</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="1"/>
-        <v>253,2.97547835307232</v>
+        <v>253,4.95913058845386</v>
       </c>
     </row>
     <row r="255">
@@ -3123,11 +3123,11 @@
         <v>254.0</v>
       </c>
       <c r="B255" s="1">
-        <v>2.96948633072827</v>
+        <v>4.94914388454711</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="1"/>
-        <v>254,2.96948633072827</v>
+        <v>254,4.94914388454711</v>
       </c>
     </row>
     <row r="256">
@@ -3135,11 +3135,11 @@
         <v>255.0</v>
       </c>
       <c r="B256" s="1">
-        <v>2.96261861855891</v>
+        <v>4.93769769759819</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="1"/>
-        <v>255,2.96261861855891</v>
+        <v>255,4.93769769759819</v>
       </c>
     </row>
     <row r="257">
@@ -3147,11 +3147,11 @@
         <v>256.0</v>
       </c>
       <c r="B257" s="1">
-        <v>2.95482551722367</v>
+        <v>4.92470919537279</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="1"/>
-        <v>256,2.95482551722367</v>
+        <v>256,4.92470919537279</v>
       </c>
     </row>
     <row r="258">
@@ -3159,11 +3159,11 @@
         <v>257.0</v>
       </c>
       <c r="B258" s="1">
-        <v>2.94605986380934</v>
+        <v>4.91009977301557</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" si="1"/>
-        <v>257,2.94605986380934</v>
+        <v>257,4.91009977301557</v>
       </c>
     </row>
     <row r="259">
@@ -3171,11 +3171,11 @@
         <v>258.0</v>
       </c>
       <c r="B259" s="1">
-        <v>2.93627716110036</v>
+        <v>4.89379526850061</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="1"/>
-        <v>258,2.93627716110036</v>
+        <v>258,4.89379526850061</v>
       </c>
     </row>
     <row r="260">
@@ -3183,11 +3183,11 @@
         <v>259.0</v>
       </c>
       <c r="B260" s="1">
-        <v>2.92543569954261</v>
+        <v>4.87572616590434</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="1"/>
-        <v>259,2.92543569954261</v>
+        <v>259,4.87572616590434</v>
       </c>
     </row>
     <row r="261">
@@ -3195,11 +3195,11 @@
         <v>260.0</v>
       </c>
       <c r="B261" s="1">
-        <v>2.91349667156634</v>
+        <v>4.85582778594391</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="1"/>
-        <v>260,2.91349667156634</v>
+        <v>260,4.85582778594391</v>
       </c>
     </row>
     <row r="262">
@@ -3207,11 +3207,11 @@
         <v>261.0</v>
       </c>
       <c r="B262" s="1">
-        <v>2.90042427795512</v>
+        <v>4.83404046325854</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="1"/>
-        <v>261,2.90042427795512</v>
+        <v>261,4.83404046325854</v>
       </c>
     </row>
     <row r="263">
@@ -3219,11 +3219,11 @@
         <v>262.0</v>
       </c>
       <c r="B263" s="1">
-        <v>2.8861858259689</v>
+        <v>4.81030970994817</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="1"/>
-        <v>262,2.8861858259689</v>
+        <v>262,4.81030970994817</v>
       </c>
     </row>
     <row r="264">
@@ -3231,11 +3231,11 @@
         <v>263.0</v>
       </c>
       <c r="B264" s="1">
-        <v>2.87075181895261</v>
+        <v>4.78458636492101</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="1"/>
-        <v>263,2.87075181895261</v>
+        <v>263,4.78458636492101</v>
       </c>
     </row>
     <row r="265">
@@ -3243,11 +3243,11 @@
         <v>264.0</v>
       </c>
       <c r="B265" s="1">
-        <v>2.85409603718439</v>
+        <v>4.75682672864066</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="1"/>
-        <v>264,2.85409603718439</v>
+        <v>264,4.75682672864066</v>
       </c>
     </row>
     <row r="266">
@@ -3255,11 +3255,11 @@
         <v>265.0</v>
       </c>
       <c r="B266" s="1">
-        <v>2.83619560974209</v>
+        <v>4.72699268290348</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="1"/>
-        <v>265,2.83619560974209</v>
+        <v>265,4.72699268290348</v>
       </c>
     </row>
     <row r="267">
@@ -3267,11 +3267,11 @@
         <v>266.0</v>
       </c>
       <c r="B267" s="1">
-        <v>2.81703107719079</v>
+        <v>4.69505179531798</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="1"/>
-        <v>266,2.81703107719079</v>
+        <v>266,4.69505179531798</v>
       </c>
     </row>
     <row r="268">
@@ -3279,11 +3279,11 @@
         <v>267.0</v>
       </c>
       <c r="B268" s="1">
-        <v>2.79658644491984</v>
+        <v>4.66097740819974</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="1"/>
-        <v>267,2.79658644491984</v>
+        <v>267,4.66097740819974</v>
       </c>
     </row>
     <row r="269">
@@ -3291,11 +3291,11 @@
         <v>268.0</v>
       </c>
       <c r="B269" s="1">
-        <v>2.77484922698294</v>
+        <v>4.62474871163824</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="1"/>
-        <v>268,2.77484922698294</v>
+        <v>268,4.62474871163824</v>
       </c>
     </row>
     <row r="270">
@@ -3303,11 +3303,11 @@
         <v>269.0</v>
       </c>
       <c r="B270" s="1">
-        <v>2.75181048032125</v>
+        <v>4.58635080053542</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="1"/>
-        <v>269,2.75181048032125</v>
+        <v>269,4.58635080053542</v>
       </c>
     </row>
     <row r="271">
@@ -3315,11 +3315,11 @@
         <v>270.0</v>
       </c>
       <c r="B271" s="1">
-        <v>2.72746482927569</v>
+        <v>4.54577471545948</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="1"/>
-        <v>270,2.72746482927569</v>
+        <v>270,4.54577471545948</v>
       </c>
     </row>
     <row r="272">
@@ -3327,11 +3327,11 @@
         <v>271.0</v>
       </c>
       <c r="B272" s="1">
-        <v>2.70181048032125</v>
+        <v>4.50301746720208</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="1"/>
-        <v>271,2.70181048032125</v>
+        <v>271,4.50301746720208</v>
       </c>
     </row>
     <row r="273">
@@ -3339,11 +3339,11 @@
         <v>272.0</v>
       </c>
       <c r="B273" s="1">
-        <v>2.67484922698294</v>
+        <v>4.45808204497157</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="1"/>
-        <v>272,2.67484922698294</v>
+        <v>272,4.45808204497157</v>
       </c>
     </row>
     <row r="274">
@@ -3351,11 +3351,11 @@
         <v>273.0</v>
       </c>
       <c r="B274" s="1">
-        <v>2.64658644491984</v>
+        <v>4.41097740819974</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="1"/>
-        <v>273,2.64658644491984</v>
+        <v>273,4.41097740819974</v>
       </c>
     </row>
     <row r="275">
@@ -3363,11 +3363,11 @@
         <v>274.0</v>
       </c>
       <c r="B275" s="1">
-        <v>2.61703107719079</v>
+        <v>4.36171846198465</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="1"/>
-        <v>274,2.61703107719079</v>
+        <v>274,4.36171846198465</v>
       </c>
     </row>
     <row r="276">
@@ -3375,11 +3375,11 @@
         <v>275.0</v>
       </c>
       <c r="B276" s="1">
-        <v>2.58619560974209</v>
+        <v>4.31032601623681</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="1"/>
-        <v>275,2.58619560974209</v>
+        <v>275,4.31032601623681</v>
       </c>
     </row>
     <row r="277">
@@ -3387,11 +3387,11 @@
         <v>276.0</v>
       </c>
       <c r="B277" s="1">
-        <v>2.55409603718439</v>
+        <v>4.25682672864066</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="1"/>
-        <v>276,2.55409603718439</v>
+        <v>276,4.25682672864066</v>
       </c>
     </row>
     <row r="278">
@@ -3399,11 +3399,11 @@
         <v>277.0</v>
       </c>
       <c r="B278" s="1">
-        <v>2.52075181895261</v>
+        <v>4.20125303158768</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="1"/>
-        <v>277,2.52075181895261</v>
+        <v>277,4.20125303158768</v>
       </c>
     </row>
     <row r="279">
@@ -3411,11 +3411,11 @@
         <v>278.0</v>
       </c>
       <c r="B279" s="1">
-        <v>2.4861858259689</v>
+        <v>4.1436430432815</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="1"/>
-        <v>278,2.4861858259689</v>
+        <v>278,4.1436430432815</v>
       </c>
     </row>
     <row r="280">
@@ -3423,11 +3423,11 @@
         <v>279.0</v>
       </c>
       <c r="B280" s="1">
-        <v>2.45042427795512</v>
+        <v>4.08404046325854</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="1"/>
-        <v>279,2.45042427795512</v>
+        <v>279,4.08404046325854</v>
       </c>
     </row>
     <row r="281">
@@ -3435,11 +3435,11 @@
         <v>280.0</v>
       </c>
       <c r="B281" s="1">
-        <v>2.41349667156634</v>
+        <v>4.02249445261057</v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="1"/>
-        <v>280,2.41349667156634</v>
+        <v>280,4.02249445261057</v>
       </c>
     </row>
     <row r="282">
@@ -3447,11 +3447,11 @@
         <v>281.0</v>
       </c>
       <c r="B282" s="1">
-        <v>2.3754356995426</v>
+        <v>3.95905949923767</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="1"/>
-        <v>281,2.3754356995426</v>
+        <v>281,3.95905949923767</v>
       </c>
     </row>
     <row r="283">
@@ -3459,11 +3459,11 @@
         <v>282.0</v>
       </c>
       <c r="B283" s="1">
-        <v>2.33627716110036</v>
+        <v>3.8937952685006</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="1"/>
-        <v>282,2.33627716110036</v>
+        <v>282,3.8937952685006</v>
       </c>
     </row>
     <row r="284">
@@ -3471,11 +3471,11 @@
         <v>283.0</v>
       </c>
       <c r="B284" s="1">
-        <v>2.29605986380934</v>
+        <v>3.82676643968224</v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="1"/>
-        <v>283,2.29605986380934</v>
+        <v>283,3.82676643968224</v>
       </c>
     </row>
     <row r="285">
@@ -3483,11 +3483,11 @@
         <v>284.0</v>
       </c>
       <c r="B285" s="1">
-        <v>2.25482551722367</v>
+        <v>3.75804252870612</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="1"/>
-        <v>284,2.25482551722367</v>
+        <v>284,3.75804252870612</v>
       </c>
     </row>
     <row r="286">
@@ -3495,11 +3495,11 @@
         <v>285.0</v>
       </c>
       <c r="B286" s="1">
-        <v>2.21261861855891</v>
+        <v>3.68769769759819</v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="1"/>
-        <v>285,2.21261861855891</v>
+        <v>285,3.68769769759819</v>
       </c>
     </row>
     <row r="287">
@@ -3507,11 +3507,11 @@
         <v>286.0</v>
       </c>
       <c r="B287" s="1">
-        <v>2.16948633072827</v>
+        <v>3.61581055121378</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="1"/>
-        <v>286,2.16948633072827</v>
+        <v>286,3.61581055121378</v>
       </c>
     </row>
     <row r="288">
@@ -3519,11 +3519,11 @@
         <v>287.0</v>
       </c>
       <c r="B288" s="1">
-        <v>2.12547835307232</v>
+        <v>3.5424639217872</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="1"/>
-        <v>287,2.12547835307232</v>
+        <v>287,3.5424639217872</v>
       </c>
     </row>
     <row r="289">
@@ -3531,11 +3531,11 @@
         <v>288.0</v>
       </c>
       <c r="B289" s="1">
-        <v>2.08064678513659</v>
+        <v>3.46774464189432</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="1"/>
-        <v>288,2.08064678513659</v>
+        <v>288,3.46774464189432</v>
       </c>
     </row>
     <row r="290">
@@ -3543,11 +3543,11 @@
         <v>289.0</v>
       </c>
       <c r="B290" s="1">
-        <v>2.03504598387032</v>
+        <v>3.39174330645054</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="1"/>
-        <v>289,2.03504598387032</v>
+        <v>289,3.39174330645054</v>
       </c>
     </row>
     <row r="291">
@@ -3555,11 +3555,11 @@
         <v>290.0</v>
       </c>
       <c r="B291" s="1">
-        <v>1.98873241463784</v>
+        <v>3.31455402439641</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="1"/>
-        <v>290,1.98873241463784</v>
+        <v>290,3.31455402439641</v>
       </c>
     </row>
     <row r="292">
@@ -3567,11 +3567,11 @@
         <v>291.0</v>
       </c>
       <c r="B292" s="1">
-        <v>1.94176449645093</v>
+        <v>3.23627416075155</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="1"/>
-        <v>291,1.94176449645093</v>
+        <v>291,3.23627416075155</v>
       </c>
     </row>
     <row r="293">
@@ -3579,11 +3579,11 @@
         <v>292.0</v>
       </c>
       <c r="B293" s="1">
-        <v>1.89420244184635</v>
+        <v>3.15700406974392</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="1"/>
-        <v>292,1.89420244184635</v>
+        <v>292,3.15700406974392</v>
       </c>
     </row>
     <row r="294">
@@ -3591,11 +3591,11 @@
         <v>293.0</v>
       </c>
       <c r="B294" s="1">
-        <v>1.84610809184752</v>
+        <v>3.07684681974587</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="1"/>
-        <v>293,1.84610809184752</v>
+        <v>293,3.07684681974587</v>
       </c>
     </row>
     <row r="295">
@@ -3603,11 +3603,11 @@
         <v>294.0</v>
       </c>
       <c r="B295" s="1">
-        <v>1.79754474646252</v>
+        <v>2.99590791077087</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="1"/>
-        <v>294,1.79754474646252</v>
+        <v>294,2.99590791077087</v>
       </c>
     </row>
     <row r="296">
@@ -3615,11 +3615,11 @@
         <v>295.0</v>
       </c>
       <c r="B296" s="1">
-        <v>1.74857699118317</v>
+        <v>2.91429498530528</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="1"/>
-        <v>295,1.74857699118317</v>
+        <v>295,2.91429498530528</v>
       </c>
     </row>
     <row r="297">
@@ -3627,11 +3627,11 @@
         <v>296.0</v>
       </c>
       <c r="B297" s="1">
-        <v>1.69927051996072</v>
+        <v>2.83211753326787</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="1"/>
-        <v>296,1.69927051996072</v>
+        <v>296,2.83211753326787</v>
       </c>
     </row>
     <row r="298">
@@ -3639,11 +3639,11 @@
         <v>297.0</v>
       </c>
       <c r="B298" s="1">
-        <v>1.64969195514327</v>
+        <v>2.74948659190544</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="1"/>
-        <v>297,1.64969195514327</v>
+        <v>297,2.74948659190544</v>
       </c>
     </row>
     <row r="299">
@@ -3651,11 +3651,11 @@
         <v>298.0</v>
       </c>
       <c r="B299" s="1">
-        <v>1.59990866486854</v>
+        <v>2.66651444144757</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="1"/>
-        <v>298,1.59990866486854</v>
+        <v>298,2.66651444144757</v>
       </c>
     </row>
     <row r="300">
@@ -3663,11 +3663,11 @@
         <v>299.0</v>
       </c>
       <c r="B300" s="1">
-        <v>1.54998857841252</v>
+        <v>2.5833142973542</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="1"/>
-        <v>299,1.54998857841252</v>
+        <v>299,2.5833142973542</v>
       </c>
     </row>
     <row r="301">
@@ -3675,11 +3675,11 @@
         <v>300.0</v>
       </c>
       <c r="B301" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="1"/>
-        <v>300,1.5</v>
+        <v>300,2.5</v>
       </c>
     </row>
     <row r="302">
@@ -3687,11 +3687,11 @@
         <v>301.0</v>
       </c>
       <c r="B302" s="1">
-        <v>1.45001142158748</v>
+        <v>2.41668570264581</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="1"/>
-        <v>301,1.45001142158748</v>
+        <v>301,2.41668570264581</v>
       </c>
     </row>
     <row r="303">
@@ -3699,11 +3699,11 @@
         <v>302.0</v>
       </c>
       <c r="B303" s="1">
-        <v>1.40009133513146</v>
+        <v>2.33348555855244</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="1"/>
-        <v>302,1.40009133513146</v>
+        <v>302,2.33348555855244</v>
       </c>
     </row>
     <row r="304">
@@ -3711,11 +3711,11 @@
         <v>303.0</v>
       </c>
       <c r="B304" s="1">
-        <v>1.35030804485673</v>
+        <v>2.25051340809456</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="1"/>
-        <v>303,1.35030804485673</v>
+        <v>303,2.25051340809456</v>
       </c>
     </row>
     <row r="305">
@@ -3723,11 +3723,11 @@
         <v>304.0</v>
       </c>
       <c r="B305" s="1">
-        <v>1.30072948003928</v>
+        <v>2.16788246673213</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="1"/>
-        <v>304,1.30072948003928</v>
+        <v>304,2.16788246673213</v>
       </c>
     </row>
     <row r="306">
@@ -3735,11 +3735,11 @@
         <v>305.0</v>
       </c>
       <c r="B306" s="1">
-        <v>1.25142300881683</v>
+        <v>2.08570501469472</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="1"/>
-        <v>305,1.25142300881683</v>
+        <v>305,2.08570501469472</v>
       </c>
     </row>
     <row r="307">
@@ -3747,11 +3747,11 @@
         <v>306.0</v>
       </c>
       <c r="B307" s="1">
-        <v>1.20245525353748</v>
+        <v>2.00409208922913</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="1"/>
-        <v>306,1.20245525353748</v>
+        <v>306,2.00409208922913</v>
       </c>
     </row>
     <row r="308">
@@ -3759,11 +3759,11 @@
         <v>307.0</v>
       </c>
       <c r="B308" s="1">
-        <v>1.15389190815248</v>
+        <v>1.92315318025413</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="1"/>
-        <v>307,1.15389190815248</v>
+        <v>307,1.92315318025413</v>
       </c>
     </row>
     <row r="309">
@@ -3771,11 +3771,11 @@
         <v>308.0</v>
       </c>
       <c r="B309" s="1">
-        <v>1.10579755815365</v>
+        <v>1.84299593025608</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="1"/>
-        <v>308,1.10579755815365</v>
+        <v>308,1.84299593025608</v>
       </c>
     </row>
     <row r="310">
@@ -3783,11 +3783,11 @@
         <v>309.0</v>
       </c>
       <c r="B310" s="1">
-        <v>1.05823550354907</v>
+        <v>1.76372583924846</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="1"/>
-        <v>309,1.05823550354907</v>
+        <v>309,1.76372583924846</v>
       </c>
     </row>
     <row r="311">
@@ -3795,11 +3795,11 @@
         <v>310.0</v>
       </c>
       <c r="B311" s="1">
-        <v>1.01126758536216</v>
+        <v>1.6854459756036</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="1"/>
-        <v>310,1.01126758536216</v>
+        <v>310,1.6854459756036</v>
       </c>
     </row>
     <row r="312">
@@ -3807,11 +3807,11 @@
         <v>311.0</v>
       </c>
       <c r="B312" s="1">
-        <v>0.964954016129676</v>
+        <v>1.60825669354946</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="1"/>
-        <v>311,0.964954016129676</v>
+        <v>311,1.60825669354946</v>
       </c>
     </row>
     <row r="313">
@@ -3819,11 +3819,11 @@
         <v>312.0</v>
       </c>
       <c r="B313" s="1">
-        <v>0.919353214863408</v>
+        <v>1.53225535810568</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="1"/>
-        <v>312,0.919353214863408</v>
+        <v>312,1.53225535810568</v>
       </c>
     </row>
     <row r="314">
@@ -3831,11 +3831,11 @@
         <v>313.0</v>
       </c>
       <c r="B314" s="1">
-        <v>0.874521646927681</v>
+        <v>1.4575360782128</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="1"/>
-        <v>313,0.874521646927681</v>
+        <v>313,1.4575360782128</v>
       </c>
     </row>
     <row r="315">
@@ -3843,11 +3843,11 @@
         <v>314.0</v>
       </c>
       <c r="B315" s="1">
-        <v>0.830513669271731</v>
+        <v>1.38418944878622</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="1"/>
-        <v>314,0.830513669271731</v>
+        <v>314,1.38418944878622</v>
       </c>
     </row>
     <row r="316">
@@ -3855,11 +3855,11 @@
         <v>315.0</v>
       </c>
       <c r="B316" s="1">
-        <v>0.787381381441085</v>
+        <v>1.31230230240181</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="1"/>
-        <v>315,0.787381381441085</v>
+        <v>315,1.31230230240181</v>
       </c>
     </row>
     <row r="317">
@@ -3867,11 +3867,11 @@
         <v>316.0</v>
       </c>
       <c r="B317" s="1">
-        <v>0.745174482776326</v>
+        <v>1.24195747129388</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="1"/>
-        <v>316,0.745174482776326</v>
+        <v>316,1.24195747129388</v>
       </c>
     </row>
     <row r="318">
@@ -3879,11 +3879,11 @@
         <v>317.0</v>
       </c>
       <c r="B318" s="1">
-        <v>0.703940136190659</v>
+        <v>1.17323356031777</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="1"/>
-        <v>317,0.703940136190659</v>
+        <v>317,1.17323356031777</v>
       </c>
     </row>
     <row r="319">
@@ -3891,11 +3891,11 @@
         <v>318.0</v>
       </c>
       <c r="B319" s="1">
-        <v>0.663722838899637</v>
+        <v>1.10620473149939</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="1"/>
-        <v>318,0.663722838899637</v>
+        <v>318,1.10620473149939</v>
       </c>
     </row>
     <row r="320">
@@ -3903,11 +3903,11 @@
         <v>319.0</v>
       </c>
       <c r="B320" s="1">
-        <v>0.624564300457396</v>
+        <v>1.04094050076233</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="1"/>
-        <v>319,0.624564300457396</v>
+        <v>319,1.04094050076233</v>
       </c>
     </row>
     <row r="321">
@@ -3915,11 +3915,11 @@
         <v>320.0</v>
       </c>
       <c r="B321" s="1">
-        <v>0.586503328433657</v>
+        <v>0.977505547389427</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="1"/>
-        <v>320,0.586503328433657</v>
+        <v>320,0.977505547389427</v>
       </c>
     </row>
     <row r="322">
@@ -3927,11 +3927,11 @@
         <v>321.0</v>
       </c>
       <c r="B322" s="1">
-        <v>0.549575722044879</v>
+        <v>0.915959536741465</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" si="1"/>
-        <v>321,0.549575722044879</v>
+        <v>321,0.915959536741465</v>
       </c>
     </row>
     <row r="323">
@@ -3939,11 +3939,11 @@
         <v>322.0</v>
       </c>
       <c r="B323" s="1">
-        <v>0.513814174031098</v>
+        <v>0.856356956718496</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="1"/>
-        <v>322,0.513814174031098</v>
+        <v>322,0.856356956718496</v>
       </c>
     </row>
     <row r="324">
@@ -3951,11 +3951,11 @@
         <v>323.0</v>
       </c>
       <c r="B324" s="1">
-        <v>0.479248181047391</v>
+        <v>0.798746968412319</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="1"/>
-        <v>323,0.479248181047391</v>
+        <v>323,0.798746968412319</v>
       </c>
     </row>
     <row r="325">
@@ -3963,11 +3963,11 @@
         <v>324.0</v>
       </c>
       <c r="B325" s="1">
-        <v>0.445903962815605</v>
+        <v>0.743173271359343</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="1"/>
-        <v>324,0.445903962815605</v>
+        <v>324,0.743173271359343</v>
       </c>
     </row>
     <row r="326">
@@ -3975,11 +3975,11 @@
         <v>325.0</v>
       </c>
       <c r="B326" s="1">
-        <v>0.413804390257914</v>
+        <v>0.689673983763189</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="1"/>
-        <v>325,0.413804390257914</v>
+        <v>325,0.689673983763189</v>
       </c>
     </row>
     <row r="327">
@@ -3987,11 +3987,11 @@
         <v>326.0</v>
       </c>
       <c r="B327" s="1">
-        <v>0.382968922809211</v>
+        <v>0.638281538015352</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="1"/>
-        <v>326,0.382968922809211</v>
+        <v>326,0.638281538015352</v>
       </c>
     </row>
     <row r="328">
@@ -3999,11 +3999,11 @@
         <v>327.0</v>
       </c>
       <c r="B328" s="1">
-        <v>0.353413555080157</v>
+        <v>0.589022591800262</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="1"/>
-        <v>327,0.353413555080157</v>
+        <v>327,0.589022591800262</v>
       </c>
     </row>
     <row r="329">
@@ -4011,11 +4011,11 @@
         <v>328.0</v>
       </c>
       <c r="B329" s="1">
-        <v>0.325150773017056</v>
+        <v>0.541917955028426</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="1"/>
-        <v>328,0.325150773017056</v>
+        <v>328,0.541917955028426</v>
       </c>
     </row>
     <row r="330">
@@ -4023,11 +4023,11 @@
         <v>329.0</v>
       </c>
       <c r="B330" s="1">
-        <v>0.29818951967875</v>
+        <v>0.496982532797915</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="1"/>
-        <v>329,0.29818951967875</v>
+        <v>329,0.496982532797915</v>
       </c>
     </row>
     <row r="331">
@@ -4035,11 +4035,11 @@
         <v>330.0</v>
       </c>
       <c r="B331" s="1">
-        <v>0.272535170724314</v>
+        <v>0.454225284540524</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="1"/>
-        <v>330,0.272535170724314</v>
+        <v>330,0.454225284540524</v>
       </c>
     </row>
     <row r="332">
@@ -4047,11 +4047,11 @@
         <v>331.0</v>
       </c>
       <c r="B332" s="1">
-        <v>0.24818951967875</v>
+        <v>0.413649199464583</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="1"/>
-        <v>331,0.24818951967875</v>
+        <v>331,0.413649199464583</v>
       </c>
     </row>
     <row r="333">
@@ -4059,11 +4059,11 @@
         <v>332.0</v>
       </c>
       <c r="B333" s="1">
-        <v>0.225150773017056</v>
+        <v>0.37525128836176</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="1"/>
-        <v>332,0.225150773017056</v>
+        <v>332,0.37525128836176</v>
       </c>
     </row>
     <row r="334">
@@ -4071,11 +4071,11 @@
         <v>333.0</v>
       </c>
       <c r="B334" s="1">
-        <v>0.203413555080157</v>
+        <v>0.339022591800262</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="1"/>
-        <v>333,0.203413555080157</v>
+        <v>333,0.339022591800262</v>
       </c>
     </row>
     <row r="335">
@@ -4083,11 +4083,11 @@
         <v>334.0</v>
       </c>
       <c r="B335" s="1">
-        <v>0.182968922809213</v>
+        <v>0.30494820468202</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="1"/>
-        <v>334,0.182968922809213</v>
+        <v>334,0.30494820468202</v>
       </c>
     </row>
     <row r="336">
@@ -4095,11 +4095,11 @@
         <v>335.0</v>
       </c>
       <c r="B336" s="1">
-        <v>0.163804390257915</v>
+        <v>0.273007317096525</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="1"/>
-        <v>335,0.163804390257915</v>
+        <v>335,0.273007317096525</v>
       </c>
     </row>
     <row r="337">
@@ -4107,11 +4107,11 @@
         <v>336.0</v>
       </c>
       <c r="B337" s="1">
-        <v>0.145903962815606</v>
+        <v>0.243173271359344</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="1"/>
-        <v>336,0.145903962815606</v>
+        <v>336,0.243173271359344</v>
       </c>
     </row>
     <row r="338">
@@ -4119,11 +4119,11 @@
         <v>337.0</v>
       </c>
       <c r="B338" s="1">
-        <v>0.129248181047393</v>
+        <v>0.215413635078987</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="1"/>
-        <v>337,0.129248181047393</v>
+        <v>337,0.215413635078987</v>
       </c>
     </row>
     <row r="339">
@@ -4131,11 +4131,11 @@
         <v>338.0</v>
       </c>
       <c r="B339" s="1">
-        <v>0.113814174031097</v>
+        <v>0.189690290051827</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="1"/>
-        <v>338,0.113814174031097</v>
+        <v>338,0.189690290051827</v>
       </c>
     </row>
     <row r="340">
@@ -4143,11 +4143,11 @@
         <v>339.0</v>
       </c>
       <c r="B340" s="1">
-        <v>0.099575722044877</v>
+        <v>0.165959536741463</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="1"/>
-        <v>339,0.099575722044877</v>
+        <v>339,0.165959536741463</v>
       </c>
     </row>
     <row r="341">
@@ -4155,11 +4155,11 @@
         <v>340.0</v>
       </c>
       <c r="B341" s="1">
-        <v>0.0865033284336558</v>
+        <v>0.144172214056093</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="1"/>
-        <v>340,0.0865033284336558</v>
+        <v>340,0.144172214056093</v>
       </c>
     </row>
     <row r="342">
@@ -4167,11 +4167,11 @@
         <v>341.0</v>
       </c>
       <c r="B342" s="1">
-        <v>0.0745643004573946</v>
+        <v>0.124273834095657</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="1"/>
-        <v>341,0.0745643004573946</v>
+        <v>341,0.124273834095657</v>
       </c>
     </row>
     <row r="343">
@@ -4179,11 +4179,11 @@
         <v>342.0</v>
       </c>
       <c r="B343" s="1">
-        <v>0.0637228388996363</v>
+        <v>0.106204731499393</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="1"/>
-        <v>342,0.0637228388996363</v>
+        <v>342,0.106204731499393</v>
       </c>
     </row>
     <row r="344">
@@ -4191,11 +4191,11 @@
         <v>343.0</v>
       </c>
       <c r="B344" s="1">
-        <v>0.0539401361906595</v>
+        <v>0.0899002269844313</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="1"/>
-        <v>343,0.0539401361906595</v>
+        <v>343,0.0899002269844313</v>
       </c>
     </row>
     <row r="345">
@@ -4203,11 +4203,11 @@
         <v>344.0</v>
       </c>
       <c r="B345" s="1">
-        <v>0.0451744827763259</v>
+        <v>0.0752908046272101</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="1"/>
-        <v>344,0.0451744827763259</v>
+        <v>344,0.0752908046272101</v>
       </c>
     </row>
     <row r="346">
@@ -4215,11 +4215,11 @@
         <v>345.0</v>
       </c>
       <c r="B346" s="1">
-        <v>0.0373813814410857</v>
+        <v>0.0623023024018092</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="1"/>
-        <v>345,0.0373813814410857</v>
+        <v>345,0.0623023024018092</v>
       </c>
     </row>
     <row r="347">
@@ -4227,11 +4227,11 @@
         <v>346.0</v>
       </c>
       <c r="B347" s="1">
-        <v>0.0305136692717314</v>
+        <v>0.0508561154528859</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="1"/>
-        <v>346,0.0305136692717314</v>
+        <v>346,0.0508561154528859</v>
       </c>
     </row>
     <row r="348">
@@ -4239,11 +4239,11 @@
         <v>347.0</v>
       </c>
       <c r="B348" s="1">
-        <v>0.0245216469276812</v>
+        <v>0.0408694115461348</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="1"/>
-        <v>347,0.0245216469276812</v>
+        <v>347,0.0408694115461348</v>
       </c>
     </row>
     <row r="349">
@@ -4251,11 +4251,11 @@
         <v>348.0</v>
       </c>
       <c r="B349" s="1">
-        <v>0.0193532148634086</v>
+        <v>0.0322553581056813</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="1"/>
-        <v>348,0.0193532148634086</v>
+        <v>348,0.0322553581056813</v>
       </c>
     </row>
     <row r="350">
@@ -4263,11 +4263,11 @@
         <v>349.0</v>
       </c>
       <c r="B350" s="1">
-        <v>0.0149540161296766</v>
+        <v>0.0249233602161265</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="1"/>
-        <v>349,0.0149540161296766</v>
+        <v>349,0.0249233602161265</v>
       </c>
     </row>
     <row r="351">
@@ -4275,11 +4275,11 @@
         <v>350.0</v>
       </c>
       <c r="B351" s="1">
-        <v>0.0112675853621562</v>
+        <v>0.0187793089369279</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="1"/>
-        <v>350,0.0112675853621562</v>
+        <v>350,0.0187793089369279</v>
       </c>
     </row>
     <row r="352">
@@ -4287,11 +4287,11 @@
         <v>351.0</v>
       </c>
       <c r="B352" s="1">
-        <v>0.00823550354907443</v>
+        <v>0.0137258392484583</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="1"/>
-        <v>351,0.00823550354907443</v>
+        <v>351,0.0137258392484583</v>
       </c>
     </row>
     <row r="353">
@@ -4299,11 +4299,11 @@
         <v>352.0</v>
       </c>
       <c r="B353" s="1">
-        <v>0.00579755815364713</v>
+        <v>0.00966259692274463</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="1"/>
-        <v>352,0.00579755815364713</v>
+        <v>352,0.00966259692274463</v>
       </c>
     </row>
     <row r="354">
@@ -4311,11 +4311,11 @@
         <v>353.0</v>
       </c>
       <c r="B354" s="1">
-        <v>0.00389190815247531</v>
+        <v>0.00648651358745944</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="1"/>
-        <v>353,0.00389190815247531</v>
+        <v>353,0.00648651358745944</v>
       </c>
     </row>
     <row r="355">
@@ -4323,11 +4323,11 @@
         <v>354.0</v>
       </c>
       <c r="B355" s="1">
-        <v>0.00245525353748022</v>
+        <v>0.00409208922913251</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="1"/>
-        <v>354,0.00245525353748022</v>
+        <v>354,0.00409208922913251</v>
       </c>
     </row>
     <row r="356">
@@ -4335,11 +4335,11 @@
         <v>355.0</v>
       </c>
       <c r="B356" s="1">
-        <v>0.00142300881682722</v>
+        <v>0.00237168136137989</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="1"/>
-        <v>355,0.00142300881682722</v>
+        <v>355,0.00237168136137989</v>
       </c>
     </row>
     <row r="357">
@@ -4347,11 +4347,11 @@
         <v>356.0</v>
       </c>
       <c r="B357" s="1">
-        <v>7.29480039279196E-4</v>
+        <v>0.00121580006546651</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="1"/>
-        <v>356,0.000729480039279196</v>
+        <v>356,0.00121580006546651</v>
       </c>
     </row>
     <row r="358">
@@ -4359,11 +4359,11 @@
         <v>357.0</v>
       </c>
       <c r="B358" s="1">
-        <v>3.08044856732082E-4</v>
+        <v>5.13408094553469E-4</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="1"/>
-        <v>357,0.000308044856732082</v>
+        <v>357,0.000513408094553469</v>
       </c>
     </row>
     <row r="359">
@@ -4371,11 +4371,11 @@
         <v>358.0</v>
       </c>
       <c r="B359" s="2">
-        <v>9.13351314597577E-5</v>
+        <v>1.52225219098412E-4</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="1"/>
-        <v>358,0.0000913351314597577</v>
+        <v>358,0.000152225219098412</v>
       </c>
     </row>
     <row r="360">
@@ -4383,11 +4383,11 @@
         <v>359.0</v>
       </c>
       <c r="B360" s="2">
-        <v>1.14215874820189E-5</v>
+        <v>1.90359791378825E-5</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="1"/>
-        <v>359,0.0000114215874820189</v>
+        <v>359,0.0000190359791378825</v>
       </c>
     </row>
     <row r="361">
